--- a/API_automation/excelddtdriver/report/result.xlsx
+++ b/API_automation/excelddtdriver/report/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>id</t>
   </si>
@@ -50,49 +50,205 @@
     <t>checkpoint</t>
   </si>
   <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>encrypt</t>
+  </si>
+  <si>
     <t>t_001</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=appindex3</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/x-www-form-urlencoded"}</t>
+  </si>
+  <si>
+    <t>{"uid":"278","tokenid":"YWU4NWRkZmZlNE1UVXlNell3T0RZeE1qVTRNUT09"}</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>0.047813</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>t_002</t>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=appindex2</t>
+  </si>
+  <si>
+    <t>{"uid":"278","source":2,"type":1,"tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
+  </si>
+  <si>
+    <t>0.143322</t>
+  </si>
+  <si>
+    <t>t_003</t>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=intelligentRecipeRecommend</t>
+  </si>
+  <si>
+    <t>{"uid":"278","dishtype":0,"tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
+  </si>
+  <si>
+    <t>0.018232</t>
+  </si>
+  <si>
+    <t>t_004</t>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=productList</t>
+  </si>
+  <si>
+    <t>{"uid":"278","tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
+  </si>
+  <si>
+    <t>0.019932</t>
+  </si>
+  <si>
+    <t>t_005</t>
+  </si>
+  <si>
     <t>http://qaapi.xiaoaijiankang.com/?method=dayCourses</t>
   </si>
   <si>
-    <t>{"Content-Type":"application/x-www-form-urlencoded"}</t>
-  </si>
-  <si>
-    <t>{"uid":"346","date":"20180413","tokenid":"YWU4NWRkZmZlNE1UVXlNell3T0RZeE1qVTRNUT09"}</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>0.043774</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>t_002</t>
-  </si>
-  <si>
-    <t>http://qaapi.xiaoaijiankang.com/?method=dayCoursesgetRecipeRecord</t>
-  </si>
-  <si>
-    <t>{"seltime":"2018-06-26","uid":"346","tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
-  </si>
-  <si>
-    <t>{"code":"000","msg":"\u8bf7\u6c42\u6570\u636e\u6210\u529f","data":{"istoday":1,"isdel":1,"data":[{"type":1,"name":"\u65e9\u9910","noeat":0,"hasRecord":0,"list":[]},{"type":2,"name":"\u5348\u9910","noeat":0,"hasRecord":0,"list":[]},{"type":3,"name":"\u665a\u9910","noeat":0,"hasRecord":0,"list":[]},{"type":4,"name":"\u52a0\u9910","noeat":0,"hasRecord":0,"list":[]}],"drink":[]}}</t>
-  </si>
-  <si>
-    <t>0.014124</t>
+    <t>{"uid":"278","date":"20180629","tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
+  </si>
+  <si>
+    <t>0.051149</t>
+  </si>
+  <si>
+    <t>t_006</t>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=healthPlan</t>
+  </si>
+  <si>
+    <t>0.019507</t>
+  </si>
+  <si>
+    <t>t_007</t>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=obProductList</t>
+  </si>
+  <si>
+    <t>{"uid":"278","page":1,"tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
+  </si>
+  <si>
+    <t>0.019584</t>
+  </si>
+  <si>
+    <t>t_008</t>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=obProductDetail</t>
+  </si>
+  <si>
+    <t>{"uid":"278","productid":5,"tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
+  </si>
+  <si>
+    <t>0.01769</t>
+  </si>
+  <si>
+    <t>t_009</t>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=cartLists</t>
+  </si>
+  <si>
+    <t>0.014192</t>
+  </si>
+  <si>
+    <t>t_010</t>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=addCart</t>
+  </si>
+  <si>
+    <t>{"spec" : "3","method" : "addCart","productid" : "23","count" : 1,"uid" : "278"}</t>
+  </si>
+  <si>
+    <t>0.014398</t>
   </si>
   <si>
     <t>fail</t>
+  </si>
+  <si>
+    <t>t_011</t>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=myIndex</t>
+  </si>
+  <si>
+    <t>0.01846</t>
+  </si>
+  <si>
+    <t>t_012</t>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=getRecipeRecord</t>
+  </si>
+  <si>
+    <t>{"uid":"278","seltime":"2018-06-29","tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
+  </si>
+  <si>
+    <t>0.0205</t>
+  </si>
+  <si>
+    <t>t_013</t>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=lastRecipe</t>
+  </si>
+  <si>
+    <t>{"uid":"278","pageid":"1","tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
+  </si>
+  <si>
+    <t>0.019081</t>
+  </si>
+  <si>
+    <t>t_014</t>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=searchRecipe</t>
+  </si>
+  <si>
+    <t>{"uid":"278","pageid":"1","keyword":"米饭","tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
+  </si>
+  <si>
+    <t>0.017617</t>
+  </si>
+  <si>
+    <t>t_015</t>
+  </si>
+  <si>
+    <t>http://qaapi.xiaoaijiankang.com/?method=addRecipeRecord</t>
+  </si>
+  <si>
+    <t>{"uid":"278","classid":"6","jlname":"碗（标准）","name":"糙米饭","recipeid":601,"seltime":"2018-06-29","share":2,"type":3,"unitid":67,"tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
+  </si>
+  <si>
+    <t>{"code":"000","msg":"\u4fdd\u5b58\u6570\u636e\u6210\u529f","data":{"msg":"\u65e0\u8fd4\u56de\u6570\u636e"}}</t>
+  </si>
+  <si>
+    <t>0.198408</t>
   </si>
 </sst>
 </file>
@@ -428,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,69 +626,461 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s"/>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s"/>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" t="s"/>
+      <c r="K16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/API_automation/excelddtdriver/report/result.xlsx
+++ b/API_automation/excelddtdriver/report/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>id</t>
   </si>
@@ -77,7 +77,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>0.047813</t>
+    <t>0.080825</t>
   </si>
   <si>
     <t>000</t>
@@ -95,7 +95,7 @@
     <t>{"uid":"278","source":2,"type":1,"tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
   </si>
   <si>
-    <t>0.143322</t>
+    <t>0.15722</t>
   </si>
   <si>
     <t>t_003</t>
@@ -107,7 +107,7 @@
     <t>{"uid":"278","dishtype":0,"tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
   </si>
   <si>
-    <t>0.018232</t>
+    <t>0.016495</t>
   </si>
   <si>
     <t>t_004</t>
@@ -119,7 +119,7 @@
     <t>{"uid":"278","tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
   </si>
   <si>
-    <t>0.019932</t>
+    <t>0.01632</t>
   </si>
   <si>
     <t>t_005</t>
@@ -131,7 +131,7 @@
     <t>{"uid":"278","date":"20180629","tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
   </si>
   <si>
-    <t>0.051149</t>
+    <t>0.052816</t>
   </si>
   <si>
     <t>t_006</t>
@@ -140,7 +140,7 @@
     <t>http://qaapi.xiaoaijiankang.com/?method=healthPlan</t>
   </si>
   <si>
-    <t>0.019507</t>
+    <t>0.018443</t>
   </si>
   <si>
     <t>t_007</t>
@@ -152,7 +152,7 @@
     <t>{"uid":"278","page":1,"tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
   </si>
   <si>
-    <t>0.019584</t>
+    <t>0.015926</t>
   </si>
   <si>
     <t>t_008</t>
@@ -164,7 +164,7 @@
     <t>{"uid":"278","productid":5,"tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
   </si>
   <si>
-    <t>0.01769</t>
+    <t>0.017777</t>
   </si>
   <si>
     <t>t_009</t>
@@ -173,7 +173,7 @@
     <t>http://qaapi.xiaoaijiankang.com/?method=cartLists</t>
   </si>
   <si>
-    <t>0.014192</t>
+    <t>0.015193</t>
   </si>
   <si>
     <t>t_010</t>
@@ -185,10 +185,7 @@
     <t>{"spec" : "3","method" : "addCart","productid" : "23","count" : 1,"uid" : "278"}</t>
   </si>
   <si>
-    <t>0.014398</t>
-  </si>
-  <si>
-    <t>fail</t>
+    <t>0.018862</t>
   </si>
   <si>
     <t>t_011</t>
@@ -197,7 +194,7 @@
     <t>http://qaapi.xiaoaijiankang.com/?method=myIndex</t>
   </si>
   <si>
-    <t>0.01846</t>
+    <t>0.017844</t>
   </si>
   <si>
     <t>t_012</t>
@@ -209,7 +206,7 @@
     <t>{"uid":"278","seltime":"2018-06-29","tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
   </si>
   <si>
-    <t>0.0205</t>
+    <t>0.023112</t>
   </si>
   <si>
     <t>t_013</t>
@@ -221,7 +218,7 @@
     <t>{"uid":"278","pageid":"1","tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
   </si>
   <si>
-    <t>0.019081</t>
+    <t>0.027409</t>
   </si>
   <si>
     <t>t_014</t>
@@ -233,7 +230,7 @@
     <t>{"uid":"278","pageid":"1","keyword":"米饭","tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
   </si>
   <si>
-    <t>0.017617</t>
+    <t>0.02272</t>
   </si>
   <si>
     <t>t_015</t>
@@ -248,7 +245,7 @@
     <t>{"code":"000","msg":"\u4fdd\u5b58\u6570\u636e\u6210\u529f","data":{"msg":"\u65e0\u8fd4\u56de\u6570\u636e"}}</t>
   </si>
   <si>
-    <t>0.198408</t>
+    <t>0.229223</t>
   </si>
 </sst>
 </file>
@@ -929,18 +926,18 @@
         <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
         <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -955,7 +952,7 @@
         <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L12" t="s">
         <v>22</v>
@@ -963,28 +960,28 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
         <v>62</v>
       </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
         <v>63</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" t="s">
-        <v>64</v>
       </c>
       <c r="L13" t="s">
         <v>22</v>
@@ -992,28 +989,28 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
         <v>65</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
         <v>66</v>
       </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" t="s">
         <v>67</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" t="s">
-        <v>68</v>
       </c>
       <c r="L14" t="s">
         <v>22</v>
@@ -1021,28 +1018,28 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
         <v>69</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
         <v>70</v>
       </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
         <v>71</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" t="s">
-        <v>72</v>
       </c>
       <c r="L15" t="s">
         <v>22</v>
@@ -1050,20 +1047,20 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
         <v>73</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
         <v>74</v>
       </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>75</v>
-      </c>
       <c r="G16" t="s">
         <v>18</v>
       </c>
@@ -1071,14 +1068,14 @@
         <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s"/>
       <c r="K16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="M16" t="s"/>
     </row>

--- a/API_automation/excelddtdriver/report/result.xlsx
+++ b/API_automation/excelddtdriver/report/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>id</t>
   </si>
@@ -77,7 +77,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>0.080825</t>
+    <t>0.327946</t>
   </si>
   <si>
     <t>000</t>
@@ -95,7 +95,7 @@
     <t>{"uid":"278","source":2,"type":1,"tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
   </si>
   <si>
-    <t>0.15722</t>
+    <t>0.135842</t>
   </si>
   <si>
     <t>t_003</t>
@@ -107,7 +107,7 @@
     <t>{"uid":"278","dishtype":0,"tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
   </si>
   <si>
-    <t>0.016495</t>
+    <t>0.102538</t>
   </si>
   <si>
     <t>t_004</t>
@@ -119,7 +119,7 @@
     <t>{"uid":"278","tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
   </si>
   <si>
-    <t>0.01632</t>
+    <t>0.051154</t>
   </si>
   <si>
     <t>t_005</t>
@@ -131,7 +131,7 @@
     <t>{"uid":"278","date":"20180629","tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
   </si>
   <si>
-    <t>0.052816</t>
+    <t>0.224187</t>
   </si>
   <si>
     <t>t_006</t>
@@ -140,7 +140,7 @@
     <t>http://qaapi.xiaoaijiankang.com/?method=healthPlan</t>
   </si>
   <si>
-    <t>0.018443</t>
+    <t>0.044211</t>
   </si>
   <si>
     <t>t_007</t>
@@ -152,7 +152,7 @@
     <t>{"uid":"278","page":1,"tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
   </si>
   <si>
-    <t>0.015926</t>
+    <t>0.01574</t>
   </si>
   <si>
     <t>t_008</t>
@@ -164,7 +164,7 @@
     <t>{"uid":"278","productid":5,"tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
   </si>
   <si>
-    <t>0.017777</t>
+    <t>0.075956</t>
   </si>
   <si>
     <t>t_009</t>
@@ -173,7 +173,7 @@
     <t>http://qaapi.xiaoaijiankang.com/?method=cartLists</t>
   </si>
   <si>
-    <t>0.015193</t>
+    <t>0.017334</t>
   </si>
   <si>
     <t>t_010</t>
@@ -182,10 +182,10 @@
     <t>http://qaapi.xiaoaijiankang.com/?method=addCart</t>
   </si>
   <si>
-    <t>{"spec" : "3","method" : "addCart","productid" : "23","count" : 1,"uid" : "278"}</t>
-  </si>
-  <si>
-    <t>0.018862</t>
+    <t>{"spec":"3","method" : "addCart","productid" : "23","count" : 1,"uid" : "278"}</t>
+  </si>
+  <si>
+    <t>0.019129</t>
   </si>
   <si>
     <t>t_011</t>
@@ -194,7 +194,7 @@
     <t>http://qaapi.xiaoaijiankang.com/?method=myIndex</t>
   </si>
   <si>
-    <t>0.017844</t>
+    <t>0.023599</t>
   </si>
   <si>
     <t>t_012</t>
@@ -206,7 +206,7 @@
     <t>{"uid":"278","seltime":"2018-06-29","tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
   </si>
   <si>
-    <t>0.023112</t>
+    <t>0.049827</t>
   </si>
   <si>
     <t>t_013</t>
@@ -218,7 +218,7 @@
     <t>{"uid":"278","pageid":"1","tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
   </si>
   <si>
-    <t>0.027409</t>
+    <t>0.043961</t>
   </si>
   <si>
     <t>t_014</t>
@@ -230,7 +230,7 @@
     <t>{"uid":"278","pageid":"1","keyword":"米饭","tokenid":"NzJmOTM5MTE4OE1UVXlPVGs0TWpZMk1EazBOQT09"}</t>
   </si>
   <si>
-    <t>0.02272</t>
+    <t>0.070529</t>
   </si>
   <si>
     <t>t_015</t>
@@ -245,7 +245,25 @@
     <t>{"code":"000","msg":"\u4fdd\u5b58\u6570\u636e\u6210\u529f","data":{"msg":"\u65e0\u8fd4\u56de\u6570\u636e"}}</t>
   </si>
   <si>
-    <t>0.229223</t>
+    <t>t_016</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>https://qaapi.maizicare.com/api/breakfast/daily_mark</t>
+  </si>
+  <si>
+    <t>{"token":"value"}</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1.380848</t>
   </si>
 </sst>
 </file>
@@ -581,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1068,7 +1086,7 @@
         <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s"/>
       <c r="K16" t="s">
@@ -1078,6 +1096,32 @@
         <v>22</v>
       </c>
       <c r="M16" t="s"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" t="n">
+        <v>200</v>
+      </c>
+      <c r="K17" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
